--- a/veroClient/vehicles_2023-10-30.xlsx
+++ b/veroClient/vehicles_2023-10-30.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,6 @@
           <t>kurzname</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>info</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,7 +468,6 @@
           <t>PB XY 265 (Staplerhänger)</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -486,11 +480,6 @@
           <t>PB-XY 406 (PKW Hänger)</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>2.2 to Zuladung</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -515,11 +504,6 @@
           <t>PB HM 7001 (PKW Hänger)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Seit 2016 bei Frank Stelzer im Einsatz</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -556,19 +540,6 @@
           <t>PB VR 555</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>!8.9.2023
-Zu prüfen in regelmäßigen Abständen
-- Licht und Elektronik, 
-- Auspuff, 
-- Reifen, 
-- Karosserie, 
-- Innenraum, 
-- Fahrwerk, Lenkung, Bremsen
-- Motorraum//.Öl und andere Flüssigkeiten</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -593,7 +564,6 @@
           <t>TITAN Nr. 72 254</t>
         </is>
       </c>
-      <c r="C10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -606,7 +576,6 @@
           <t>TITAN Nr. 72 253</t>
         </is>
       </c>
-      <c r="C11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -619,7 +588,6 @@
           <t>TITAN Nr. 72 252</t>
         </is>
       </c>
-      <c r="C12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -632,19 +600,6 @@
           <t>PB VR 70 (Atego)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>!8.9.2023
-Zu prüfen in regelmäßigen Abständen
-- Licht und Elektronik, 
-- Auspuff, 
-- Reifen, 
-- Karosserie, 
-- Innenraum, 
-- Fahrwerk, Lenkung, Bremsen
-- Motorraum//.Öl und andere Flüssigkeiten</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -657,21 +612,6 @@
           <t>PB OJ422</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Update 25.10.2023: Das Fahrzeug hat die HU ohne Mängel bestanden.
-Hinweise:: Betriebsbremswirkung gemäß Punkt 8 Nr.1 der HU-Bremsrichtlinie ohne Beanstandung, Bremswirkung (Feststellbremse) Blockiergrenze erreicht
-!8.9.2023
-Zu prüfen in regelmäßigen Abständen
-- Licht und Elektronik, 
-- Auspuff, 
-- Reifen, 
-- Karosserie, 
-- Innenraum, 
-- Fahrwerk, Lenkung, Bremsen
-- Motorraum//.Öl und andere Flüssigkeiten</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -684,11 +624,6 @@
           <t>PB VR 83</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Anhänger für PB-MH 220</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -701,19 +636,6 @@
           <t>PB VR 79 (Atego)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>!8.9.2023
-Zu prüfen in regelmäßigen Abständen
-- Licht und Elektronik, 
-- Auspuff, 
-- Reifen, 
-- Karosserie, 
-- Innenraum, 
-- Fahrwerk, Lenkung, Bremsen
-- Motorraum//.Öl und andere Flüssigkeiten</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -726,13 +648,6 @@
           <t>PB V 1300 (Container)</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
-Es kann mit der alten Führerscheinklasse 2, bzw mit dem Führerschein Klasse C gefahren werden.
-Die Zuladung beträgt ca. 15.000 KG einschl. Container.</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -745,12 +660,6 @@
           <t>PB VR 10H (Merceds grün)</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>Zul. Gesamtgewicht : 7,5 to
-Nutzlast : 3,6 to</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -763,7 +672,6 @@
           <t>PB LH 391 (roter MB 1320)</t>
         </is>
       </c>
-      <c r="C19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -776,16 +684,6 @@
           <t>PB- VR 1500 (blauer MB 814)</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
-Es kann mit der alten Führerscheinklasse 3, bzw mit dem Führerschein Klasse C gefahren werden.
-Die Zuladung beträgt ca. 2.700 KG.
--
-Im Dezember 2018 wurde bei Kröger Fahrzeugbau die Pritsche überholt und weiter Kisten unter der Ladefläche montiert.
--</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -798,13 +696,6 @@
           <t>PB V 1400 (LKW m. Kran)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
-Es kann mit der alten Führerscheinklasse 2, bzw mit dem Führerschein Klasse C gefahren werden.
-Die Zuladung beträgt ca. 12.000 KG</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -817,7 +708,6 @@
           <t>PB VR 200 (Caddy grau)</t>
         </is>
       </c>
-      <c r="C22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -830,19 +720,6 @@
           <t>PB VR 1700 (Lemke)</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>!8.9.2023
-Zu prüfen in regelmäßigen Abständen
-- Licht und Elektronik, 
-- Auspuff, 
-- Reifen, 
-- Karosserie, 
-- Innenraum, 
-- Fahrwerk, Lenkung, Bremsen
-- Motorraum//.Öl und andere Flüssigkeiten</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -855,7 +732,6 @@
           <t>PB VR 1600 (3-sitzer)</t>
         </is>
       </c>
-      <c r="C24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -868,11 +744,6 @@
           <t>PB VR 900 (Johne)</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Führerschein B</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -883,12 +754,6 @@
       <c r="B26" s="3" t="inlineStr">
         <is>
           <t>PB VR 1800 (Horst)</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>Fphrerscheinklasse B
-Mietfahrzeug</t>
         </is>
       </c>
     </row>

--- a/veroClient/vehicles_2023-10-30.xlsx
+++ b/veroClient/vehicles_2023-10-30.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
           <t>kurzname</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -468,6 +473,7 @@
           <t>PB XY 265 (Staplerhänger)</t>
         </is>
       </c>
+      <c r="C2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -480,6 +486,11 @@
           <t>PB-XY 406 (PKW Hänger)</t>
         </is>
       </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>2.2 to Zuladung</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -504,6 +515,11 @@
           <t>PB HM 7001 (PKW Hänger)</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Seit 2016 bei Frank Stelzer im Einsatz</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -540,6 +556,19 @@
           <t>PB VR 555</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>!8.9.2023
+Zu prüfen in regelmäßigen Abständen
+- Licht und Elektronik, 
+- Auspuff, 
+- Reifen, 
+- Karosserie, 
+- Innenraum, 
+- Fahrwerk, Lenkung, Bremsen
+- Motorraum//.Öl und andere Flüssigkeiten</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -564,6 +593,7 @@
           <t>TITAN Nr. 72 254</t>
         </is>
       </c>
+      <c r="C10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -576,6 +606,7 @@
           <t>TITAN Nr. 72 253</t>
         </is>
       </c>
+      <c r="C11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -588,6 +619,7 @@
           <t>TITAN Nr. 72 252</t>
         </is>
       </c>
+      <c r="C12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -600,6 +632,19 @@
           <t>PB VR 70 (Atego)</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>!8.9.2023
+Zu prüfen in regelmäßigen Abständen
+- Licht und Elektronik, 
+- Auspuff, 
+- Reifen, 
+- Karosserie, 
+- Innenraum, 
+- Fahrwerk, Lenkung, Bremsen
+- Motorraum//.Öl und andere Flüssigkeiten</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -612,6 +657,21 @@
           <t>PB OJ422</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Update 25.10.2023: Das Fahrzeug hat die HU ohne Mängel bestanden.
+Hinweise:: Betriebsbremswirkung gemäß Punkt 8 Nr.1 der HU-Bremsrichtlinie ohne Beanstandung, Bremswirkung (Feststellbremse) Blockiergrenze erreicht
+!8.9.2023
+Zu prüfen in regelmäßigen Abständen
+- Licht und Elektronik, 
+- Auspuff, 
+- Reifen, 
+- Karosserie, 
+- Innenraum, 
+- Fahrwerk, Lenkung, Bremsen
+- Motorraum//.Öl und andere Flüssigkeiten</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -624,6 +684,11 @@
           <t>PB VR 83</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Anhänger für PB-MH 220</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -636,6 +701,19 @@
           <t>PB VR 79 (Atego)</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>!8.9.2023
+Zu prüfen in regelmäßigen Abständen
+- Licht und Elektronik, 
+- Auspuff, 
+- Reifen, 
+- Karosserie, 
+- Innenraum, 
+- Fahrwerk, Lenkung, Bremsen
+- Motorraum//.Öl und andere Flüssigkeiten</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -648,6 +726,13 @@
           <t>PB V 1300 (Container)</t>
         </is>
       </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
+Es kann mit der alten Führerscheinklasse 2, bzw mit dem Führerschein Klasse C gefahren werden.
+Die Zuladung beträgt ca. 15.000 KG einschl. Container.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -660,6 +745,12 @@
           <t>PB VR 10H (Merceds grün)</t>
         </is>
       </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Zul. Gesamtgewicht : 7,5 to
+Nutzlast : 3,6 to</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -672,6 +763,7 @@
           <t>PB LH 391 (roter MB 1320)</t>
         </is>
       </c>
+      <c r="C19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -684,6 +776,16 @@
           <t>PB- VR 1500 (blauer MB 814)</t>
         </is>
       </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
+Es kann mit der alten Führerscheinklasse 3, bzw mit dem Führerschein Klasse C gefahren werden.
+Die Zuladung beträgt ca. 2.700 KG.
+-
+Im Dezember 2018 wurde bei Kröger Fahrzeugbau die Pritsche überholt und weiter Kisten unter der Ladefläche montiert.
+-</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -696,6 +798,13 @@
           <t>PB V 1400 (LKW m. Kran)</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
+Es kann mit der alten Führerscheinklasse 2, bzw mit dem Führerschein Klasse C gefahren werden.
+Die Zuladung beträgt ca. 12.000 KG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -708,6 +817,7 @@
           <t>PB VR 200 (Caddy grau)</t>
         </is>
       </c>
+      <c r="C22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -720,6 +830,19 @@
           <t>PB VR 1700 (Lemke)</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>!8.9.2023
+Zu prüfen in regelmäßigen Abständen
+- Licht und Elektronik, 
+- Auspuff, 
+- Reifen, 
+- Karosserie, 
+- Innenraum, 
+- Fahrwerk, Lenkung, Bremsen
+- Motorraum//.Öl und andere Flüssigkeiten</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -732,6 +855,7 @@
           <t>PB VR 1600 (3-sitzer)</t>
         </is>
       </c>
+      <c r="C24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -744,6 +868,11 @@
           <t>PB VR 900 (Johne)</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Führerschein B</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -754,6 +883,12 @@
       <c r="B26" s="3" t="inlineStr">
         <is>
           <t>PB VR 1800 (Horst)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Fphrerscheinklasse B
+Mietfahrzeug</t>
         </is>
       </c>
     </row>
